--- a/TDF_JD_ReleaseNotes.xlsx
+++ b/TDF_JD_ReleaseNotes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="16935" windowHeight="7110"/>
+    <workbookView xWindow="276" yWindow="540" windowWidth="16932" windowHeight="7116"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -56,13 +56,124 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>VARIABLE, DATASET</t>
+  </si>
+  <si>
+    <t>EPOCH, VS</t>
+  </si>
+  <si>
+    <t>SD1077</t>
+  </si>
+  <si>
+    <t>FDAC021</t>
+  </si>
+  <si>
+    <t>FDA Expected variable EPOCH not found</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>VSORRESU</t>
+  </si>
+  <si>
+    <t>BEATS/MIN</t>
+  </si>
+  <si>
+    <t>CT2002</t>
+  </si>
+  <si>
+    <t>FDAC341</t>
+  </si>
+  <si>
+    <t>VSORRESU value not found in 'Units for Vital Signs Results' extensible codelist</t>
+  </si>
+  <si>
+    <t>Terminology</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>VSSTRESU</t>
+  </si>
+  <si>
+    <t>VSSTRESU value not found in 'Units for Vital Signs Results' extensible codelist</t>
+  </si>
+  <si>
+    <t>Variable, Excess</t>
+  </si>
+  <si>
+    <t>VSORRESU, 191</t>
+  </si>
+  <si>
+    <t>SD1082</t>
+  </si>
+  <si>
+    <t>FDAC036</t>
+  </si>
+  <si>
+    <t>Variable length is too long for actual data</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>VSSTRESU, 191</t>
+  </si>
+  <si>
+    <t>VSLOC, 189</t>
+  </si>
+  <si>
+    <t>Add epoch</t>
+  </si>
+  <si>
+    <t>Update value to match codelist</t>
+  </si>
+  <si>
+    <t>Shorten length</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>EPOCH</t>
+  </si>
+  <si>
+    <t>SD1076</t>
+  </si>
+  <si>
+    <t>FDAC031</t>
+  </si>
+  <si>
+    <t>Model permissible variable added into standard domain</t>
+  </si>
+  <si>
+    <t>Accept and explain in SDRG</t>
+  </si>
+  <si>
+    <t>Commented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -73,6 +184,16 @@
     <font>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF215867"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -101,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -109,12 +230,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -193,6 +323,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -227,6 +358,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,35 +534,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD145"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="13.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -471,12 +603,305 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>8201</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>245</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>8201</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1">
-    <filterColumn colId="0"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="12"/>
-  </autoFilter>
+  <autoFilter ref="A1:M1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" location="'Rules'!A159" display="SD1077"/>
+    <hyperlink ref="G2" location="'Rules'!A159" display="FDAC021"/>
+    <hyperlink ref="F3" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="G3" location="'Rules'!A3" display="FDAC341"/>
+    <hyperlink ref="F5" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="G5" location="'Rules'!A3" display="FDAC341"/>
+    <hyperlink ref="F6" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G6" location="'Rules'!A162" display="FDAC036"/>
+    <hyperlink ref="F9" location="'Rules'!A158" display="SD1076"/>
+    <hyperlink ref="G9" location="'Rules'!A158" display="FDAC031"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TDF_JD_ReleaseNotes.xlsx
+++ b/TDF_JD_ReleaseNotes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -167,6 +167,66 @@
   </si>
   <si>
     <t>Commented</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>EPOCH, SV</t>
+  </si>
+  <si>
+    <t>SVSTDY</t>
+  </si>
+  <si>
+    <t>SD1087</t>
+  </si>
+  <si>
+    <t>FDAC128</t>
+  </si>
+  <si>
+    <t>Missing SVSTDY variable, when SVSTDTC variable is present</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>SVENDY</t>
+  </si>
+  <si>
+    <t>SD1091</t>
+  </si>
+  <si>
+    <t>FDAC132</t>
+  </si>
+  <si>
+    <t>Missing SVENDY variable, when SVENDTC variable is present</t>
+  </si>
+  <si>
+    <t>VISITNUM, STUDYID, USUBJID</t>
+  </si>
+  <si>
+    <t>9.2, CDISCPILOT01, 01-711-1143</t>
+  </si>
+  <si>
+    <t>SD1060</t>
+  </si>
+  <si>
+    <t>FDAC046</t>
+  </si>
+  <si>
+    <t>Duplicate VISITNUM</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Add DY variable</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Multiple unscheduled visits. Are these visits coming from the other present domains (didn't see it)? Should SV be recreated based on all SDTM domains and include only one general unscheduled visit? Or renumber, and then need to renumber in source domain as well. Should SVUPDES be added?</t>
   </si>
 </sst>
 </file>
@@ -535,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +696,9 @@
       <c r="L2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -673,7 +735,9 @@
       <c r="L3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -710,7 +774,9 @@
       <c r="L4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -747,7 +813,9 @@
       <c r="L5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -782,7 +850,9 @@
       <c r="L6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -817,7 +887,9 @@
       <c r="L7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -852,7 +924,9 @@
       <c r="L8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -886,6 +960,150 @@
       </c>
       <c r="L9" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" ht="106.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2556</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -901,6 +1119,14 @@
     <hyperlink ref="G6" location="'Rules'!A162" display="FDAC036"/>
     <hyperlink ref="F9" location="'Rules'!A158" display="SD1076"/>
     <hyperlink ref="G9" location="'Rules'!A158" display="FDAC031"/>
+    <hyperlink ref="F10" location="'Rules'!A159" display="SD1077"/>
+    <hyperlink ref="G10" location="'Rules'!A159" display="FDAC021"/>
+    <hyperlink ref="F11" location="'Rules'!A167" display="SD1087"/>
+    <hyperlink ref="G11" location="'Rules'!A167" display="FDAC128"/>
+    <hyperlink ref="F12" location="'Rules'!A171" display="SD1091"/>
+    <hyperlink ref="G12" location="'Rules'!A171" display="FDAC132"/>
+    <hyperlink ref="F13" location="'Rules'!A142" display="SD1060"/>
+    <hyperlink ref="G13" location="'Rules'!A142" display="FDAC046"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TDF_JD_ReleaseNotes.xlsx
+++ b/TDF_JD_ReleaseNotes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Accept and explain in SDRG</t>
   </si>
   <si>
-    <t>Commented</t>
-  </si>
-  <si>
     <t>SV</t>
   </si>
   <si>
@@ -226,7 +223,10 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>Multiple unscheduled visits. Are these visits coming from the other present domains (didn't see it)? Should SV be recreated based on all SDTM domains and include only one general unscheduled visit? Or renumber, and then need to renumber in source domain as well. Should SVUPDES be added?</t>
+    <t xml:space="preserve">Updated to make duplicate unscheduled visit with different dates have unique visitnum. May need update in other domain that has the same visit/visitdate? </t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -595,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,7 +697,7 @@
         <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>42</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
         <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
@@ -959,12 +959,12 @@
         <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
@@ -996,12 +996,12 @@
         <v>41</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1009,36 +1009,36 @@
         <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1046,63 +1046,100 @@
         <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" customFormat="1" ht="106.2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3">
         <v>2556</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1127,6 +1164,8 @@
     <hyperlink ref="G12" location="'Rules'!A171" display="FDAC132"/>
     <hyperlink ref="F13" location="'Rules'!A142" display="SD1060"/>
     <hyperlink ref="G13" location="'Rules'!A142" display="FDAC046"/>
+    <hyperlink ref="F14" location="'Rules'!A158" display="SD1076"/>
+    <hyperlink ref="G14" location="'Rules'!A158" display="FDAC031"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TDF_JD_ReleaseNotes.xlsx
+++ b/TDF_JD_ReleaseNotes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -227,6 +227,39 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SCTEST</t>
+  </si>
+  <si>
+    <t>EDUCATION LEVEL</t>
+  </si>
+  <si>
+    <t>SCTEST value not found in 'Subject Characteristic Test Name' extensible codelist</t>
+  </si>
+  <si>
+    <t>SCTESTCD</t>
+  </si>
+  <si>
+    <t>EDLEVEL</t>
+  </si>
+  <si>
+    <t>SCTESTCD value not found in 'Subject Characteristic Test Code' extensible codelist</t>
+  </si>
+  <si>
+    <t>SCTEST, 3</t>
+  </si>
+  <si>
+    <t>SCTESTCD, 1</t>
+  </si>
+  <si>
+    <t>Change to "Level of Education Attained"</t>
+  </si>
+  <si>
+    <t>Change to "EDULEVEL"</t>
   </si>
 </sst>
 </file>
@@ -595,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1143,6 +1176,158 @@
         <v>69</v>
       </c>
     </row>
+    <row r="15" spans="1:13" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>254</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" customFormat="1" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>254</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
   <hyperlinks>
@@ -1166,6 +1351,12 @@
     <hyperlink ref="G13" location="'Rules'!A142" display="FDAC046"/>
     <hyperlink ref="F14" location="'Rules'!A158" display="SD1076"/>
     <hyperlink ref="G14" location="'Rules'!A158" display="FDAC031"/>
+    <hyperlink ref="F15" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="G15" location="'Rules'!A3" display="FDAC341"/>
+    <hyperlink ref="F16" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="G16" location="'Rules'!A3" display="FDAC341"/>
+    <hyperlink ref="F17" location="'Rules'!A162" display="SD1082"/>
+    <hyperlink ref="G17" location="'Rules'!A162" display="FDAC036"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
